--- a/artfynd/A 21236-2021.xlsx
+++ b/artfynd/A 21236-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67830864</v>
+        <v>71315860</v>
       </c>
       <c r="B2" t="n">
-        <v>95519</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,40 +696,44 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Stora Björksnarssjön NO, Vstm</t>
+          <t>Björksnarsängen, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>559210.6822335802</v>
+        <v>559071.0345496299</v>
       </c>
       <c r="R2" t="n">
-        <v>6632445.783431645</v>
+        <v>6632737.257453765</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,7 +757,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +767,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -782,7 +786,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Granskog, översilning, rännil</t>
+          <t>Bryn mellan granskog och hygge</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -800,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67830887</v>
+        <v>71315852</v>
       </c>
       <c r="B3" t="n">
-        <v>90674</v>
+        <v>99398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,39 +820,52 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>221235</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stora Björksnarssjön NO, Vstm</t>
+          <t>Björksnarsängen, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>559210.6822335802</v>
+        <v>559071.0345496299</v>
       </c>
       <c r="R3" t="n">
-        <v>6632445.783431645</v>
+        <v>6632737.257453765</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -872,7 +889,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -882,7 +899,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -896,13 +913,12 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Granskog, översilning</t>
+          <t>Bryn mellan granskog och hygge</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -920,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71315860</v>
+        <v>84233565</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,45 +948,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Björksnarsängen, Vstm</t>
+          <t>Björksnarsängen V, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>559071.0345496299</v>
+        <v>559058.2925808135</v>
       </c>
       <c r="R4" t="n">
-        <v>6632737.257453765</v>
+        <v>6632809.972575822</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -997,7 +1017,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1007,7 +1027,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1021,12 +1041,13 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Bryn mellan granskog och hygge</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1044,10 +1065,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71315852</v>
+        <v>97726142</v>
       </c>
       <c r="B5" t="n">
-        <v>99398</v>
+        <v>57193</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,56 +1077,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221235</v>
+        <v>206004</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Björksnarsängen, Vstm</t>
+          <t>Sylbergenskogen, Ramnäs, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>559071.0345496299</v>
+        <v>559090.7224843311</v>
       </c>
       <c r="R5" t="n">
-        <v>6632737.257453765</v>
+        <v>6632924.639299963</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1129,22 +1147,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Spårlöpa</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,86 +1178,85 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Bryn mellan granskog och hygge</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Pia Hagfors, Sören Larsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Skogsprojektet</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82077444</v>
+        <v>100012650</v>
       </c>
       <c r="B6" t="n">
-        <v>56540</v>
+        <v>98520</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sylbergen, Ramnäs sn, Vstm</t>
+          <t>Björksnarsängen, Ramnäs, Vstm, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>559028.7024672464</v>
+        <v>559079.2518648836</v>
       </c>
       <c r="R6" t="n">
-        <v>6632389.577532524</v>
+        <v>6632917.41681556</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1258,22 +1280,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1282,28 +1304,39 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>I kanten in till granskog</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Sören Larsson</t>
+          <t>Pia Hagfors</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Sören Larsson</t>
+          <t>Pia Hagfors, Sören Larsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84233383</v>
+        <v>100012020</v>
       </c>
       <c r="B7" t="n">
-        <v>95511</v>
+        <v>81972</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1312,53 +1345,52 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221944</v>
+        <v>1445</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Björksnarsravinen V, Vstm</t>
+          <t>Björksnarsängen, Ramnäs, Vstm, Vstm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>559107.1042096588</v>
+        <v>559066.4941276131</v>
       </c>
       <c r="R7" t="n">
-        <v>6632591.488513878</v>
+        <v>6632801.051186339</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1382,7 +1414,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1392,7 +1424,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1410,30 +1442,35 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Blandsumpskog, dikad</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors, Sören Larsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84233182</v>
+        <v>100237712</v>
       </c>
       <c r="B8" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1442,49 +1479,52 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Björksnarsravinen V, Vstm</t>
+          <t>Björksnaret, Ramnäs sn, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>559179.7948111967</v>
+        <v>559064.2878785466</v>
       </c>
       <c r="R8" t="n">
-        <v>6632613.767589822</v>
+        <v>6632813.08513793</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1508,7 +1548,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1518,7 +1558,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1536,30 +1576,25 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Sören Larsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Sören Larsson, Pia Hagfors</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84233565</v>
+        <v>100237739</v>
       </c>
       <c r="B9" t="n">
-        <v>81972</v>
+        <v>103265</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1568,52 +1603,57 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1445</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Björksnarsängen V, Vstm</t>
+          <t>Björksnaret, Ramnäs sn, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>559058.2925808135</v>
+        <v>559026.5183235134</v>
       </c>
       <c r="R9" t="n">
-        <v>6632809.972575822</v>
+        <v>6632875.846604396</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1637,7 +1677,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1647,12 +1687,17 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Blomstänglar från fjolåret</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1665,30 +1710,25 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Sören Larsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Sören Larsson, Pia Hagfors</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84233370</v>
+        <v>104866544</v>
       </c>
       <c r="B10" t="n">
-        <v>95511</v>
+        <v>57193</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1697,53 +1737,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221944</v>
+        <v>206004</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Björksnarsravinen V, Vstm</t>
+          <t>Norra Björksnarsvägen, Ramnäs, Vstm , Vstm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>559119.1434295904</v>
+        <v>559092.3137831029</v>
       </c>
       <c r="R10" t="n">
-        <v>6632594.697489112</v>
+        <v>6632824.594045005</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1767,22 +1807,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1791,34 +1831,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Blandsumpskog, dikad</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors, Sören Larsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>95098767</v>
+        <v>67830864</v>
       </c>
       <c r="B11" t="n">
-        <v>96254</v>
+        <v>95519</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1831,28 +1865,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>223597</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Lycopodium annotinum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stora Björksnarssjön NO, Vstm</t>
@@ -1889,7 +1922,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1899,7 +1932,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1913,13 +1946,12 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Blandskog, rännil, översilning</t>
+          <t>Granskog, översilning, rännil</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1937,10 +1969,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>95857553</v>
+        <v>67830887</v>
       </c>
       <c r="B12" t="n">
-        <v>95519</v>
+        <v>90674</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1953,41 +1985,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221945</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Björksnarsravinen V, Vstm</t>
+          <t>Stora Björksnarssjön NO, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>559113.1638181001</v>
+        <v>559210.6822335802</v>
       </c>
       <c r="R12" t="n">
-        <v>6632590.579106272</v>
+        <v>6632445.783431645</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2011,7 +2041,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2021,7 +2051,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2039,72 +2069,85 @@
       <c r="AG12" t="b">
         <v>0</v>
       </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Granskog, översilning</t>
+        </is>
+      </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>95857569</v>
+        <v>82077444</v>
       </c>
       <c r="B13" t="n">
-        <v>101680</v>
+        <v>56540</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222412</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Björksnarsviken V, Vstm</t>
+          <t>Sylbergen, Ramnäs sn, Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>559105.2811244538</v>
+        <v>559028.7024672464</v>
       </c>
       <c r="R13" t="n">
-        <v>6632642.755510757</v>
+        <v>6632389.577532524</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2128,22 +2171,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2152,26 +2195,25 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi</t>
+          <t>Sören Larsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
+          <t>Sören Larsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95857544</v>
+        <v>84233383</v>
       </c>
       <c r="B14" t="n">
         <v>95511</v>
@@ -2206,7 +2248,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2223,13 +2265,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>559113.1638181001</v>
+        <v>559107.1042096588</v>
       </c>
       <c r="R14" t="n">
-        <v>6632590.579106272</v>
+        <v>6632591.488513878</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2253,7 +2295,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2263,7 +2305,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2281,25 +2323,30 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Blandsumpskog, dikad</t>
+        </is>
+      </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>97726142</v>
+        <v>84233182</v>
       </c>
       <c r="B15" t="n">
-        <v>57193</v>
+        <v>98520</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2308,53 +2355,49 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>206004</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sylbergenskogen, Ramnäs, Vstm</t>
+          <t>Björksnarsravinen V, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>559090.7224843311</v>
+        <v>559179.7948111967</v>
       </c>
       <c r="R15" t="n">
-        <v>6632924.639299963</v>
+        <v>6632613.767589822</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2378,27 +2421,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Spårlöpa</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2407,32 +2445,34 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Pia Hagfors</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Pia Hagfors, Sören Larsson</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>Skogsprojektet</t>
-        </is>
-      </c>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100012650</v>
+        <v>84233370</v>
       </c>
       <c r="B16" t="n">
-        <v>98520</v>
+        <v>95511</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2445,49 +2485,49 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>221944</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Björksnarsängen, Ramnäs, Vstm, Vstm</t>
+          <t>Björksnarsravinen V, Vstm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>559079.2518648836</v>
+        <v>559119.1434295904</v>
       </c>
       <c r="R16" t="n">
-        <v>6632917.41681556</v>
+        <v>6632594.697489112</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2511,22 +2551,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2539,35 +2579,30 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>I kanten in till granskog</t>
+          <t>Blandsumpskog, dikad</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Pia Hagfors</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Pia Hagfors, Sören Larsson</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100012020</v>
+        <v>95098767</v>
       </c>
       <c r="B17" t="n">
-        <v>81972</v>
+        <v>96254</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2576,52 +2611,45 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1445</v>
+        <v>223597</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Björksnarsängen, Ramnäs, Vstm, Vstm</t>
+          <t>Stora Björksnarssjön NO, Vstm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>559066.4941276131</v>
+        <v>559210.6822335802</v>
       </c>
       <c r="R17" t="n">
-        <v>6632801.051186339</v>
+        <v>6632445.783431645</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2645,7 +2673,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2655,7 +2683,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2673,35 +2701,30 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Blandskog, rännil, översilning</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Pia Hagfors</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Pia Hagfors, Sören Larsson</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100237712</v>
+        <v>95857553</v>
       </c>
       <c r="B18" t="n">
-        <v>81972</v>
+        <v>95519</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2710,52 +2733,45 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1445</v>
+        <v>221945</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Björksnaret, Ramnäs sn, Vstm</t>
+          <t>Björksnarsravinen V, Vstm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>559064.2878785466</v>
+        <v>559113.1638181001</v>
       </c>
       <c r="R18" t="n">
-        <v>6632813.08513793</v>
+        <v>6632590.579106272</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2779,7 +2795,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2789,7 +2805,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2810,22 +2826,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Sören Larsson</t>
+          <t>Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Sören Larsson, Pia Hagfors</t>
+          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100237739</v>
+        <v>95857569</v>
       </c>
       <c r="B19" t="n">
-        <v>103265</v>
+        <v>101680</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2838,53 +2854,41 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221144</v>
+        <v>222412</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björksnaret, Ramnäs sn, Vstm</t>
+          <t>Björksnarsviken V, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>559026.5183235134</v>
+        <v>559105.2811244538</v>
       </c>
       <c r="R19" t="n">
-        <v>6632875.846604396</v>
+        <v>6632642.755510757</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2908,7 +2912,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2918,17 +2922,12 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Blomstänglar från fjolåret</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2944,22 +2943,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Sören Larsson</t>
+          <t>Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Sören Larsson, Pia Hagfors</t>
+          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>102293078</v>
+        <v>95857544</v>
       </c>
       <c r="B20" t="n">
-        <v>96254</v>
+        <v>95511</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2972,22 +2971,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>223597</v>
+        <v>221944</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>Huperzia selago</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2995,26 +2998,22 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Målsjövägen, Ramnäs, Vstm</t>
+          <t>Björksnarsravinen V, Vstm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>559205.7363768491</v>
+        <v>559113.1638181001</v>
       </c>
       <c r="R20" t="n">
-        <v>6632598.087953186</v>
+        <v>6632590.579106272</v>
       </c>
       <c r="S20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3038,27 +3037,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>I en blöt sänka (gammal skogsväg)</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3074,22 +3068,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Alf Gustafsson</t>
+          <t>Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Alf Gustafsson</t>
+          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104866544</v>
+        <v>102293078</v>
       </c>
       <c r="B21" t="n">
-        <v>57193</v>
+        <v>96254</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3098,53 +3092,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>206004</v>
+        <v>223597</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Norra Björksnarsvägen, Ramnäs, Vstm , Vstm</t>
+          <t>Målsjövägen, Ramnäs, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>559092.3137831029</v>
+        <v>559205.7363768491</v>
       </c>
       <c r="R21" t="n">
-        <v>6632824.594045005</v>
+        <v>6632598.087953186</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3168,22 +3162,27 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>I en blöt sänka (gammal skogsväg)</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3192,18 +3191,19 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Pia Hagfors</t>
+          <t>Alf Gustafsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Pia Hagfors, Sören Larsson</t>
+          <t>Alf Gustafsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>

--- a/artfynd/A 21236-2021.xlsx
+++ b/artfynd/A 21236-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71315860</v>
+        <v>67830864</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>95519</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,44 +696,40 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Björksnarsängen, Vstm</t>
+          <t>Stora Björksnarssjön NO, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>559071.0345496299</v>
+        <v>559210.6822335802</v>
       </c>
       <c r="R2" t="n">
-        <v>6632737.257453765</v>
+        <v>6632445.783431645</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -757,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -767,7 +763,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -786,7 +782,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Bryn mellan granskog och hygge</t>
+          <t>Granskog, översilning, rännil</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -804,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71315852</v>
+        <v>67830887</v>
       </c>
       <c r="B3" t="n">
-        <v>99398</v>
+        <v>90674</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,52 +816,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221235</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Björksnarsängen, Vstm</t>
+          <t>Stora Björksnarssjön NO, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>559071.0345496299</v>
+        <v>559210.6822335802</v>
       </c>
       <c r="R3" t="n">
-        <v>6632737.257453765</v>
+        <v>6632445.783431645</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -889,7 +872,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -899,7 +882,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -913,12 +896,13 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Bryn mellan granskog och hygge</t>
+          <t>Granskog, översilning</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -936,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84233565</v>
+        <v>71315860</v>
       </c>
       <c r="B4" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,49 +932,45 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Björksnarsängen V, Vstm</t>
+          <t>Björksnarsängen, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>559058.2925808135</v>
+        <v>559071.0345496299</v>
       </c>
       <c r="R4" t="n">
-        <v>6632809.972575822</v>
+        <v>6632737.257453765</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,7 +997,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1027,7 +1007,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1041,13 +1021,12 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Bryn mellan granskog och hygge</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1065,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97726142</v>
+        <v>71315852</v>
       </c>
       <c r="B5" t="n">
-        <v>57193</v>
+        <v>99398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1077,53 +1056,56 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>206004</v>
+        <v>221235</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sylbergenskogen, Ramnäs, Vstm</t>
+          <t>Björksnarsängen, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>559090.7224843311</v>
+        <v>559071.0345496299</v>
       </c>
       <c r="R5" t="n">
-        <v>6632924.639299963</v>
+        <v>6632737.257453765</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1147,27 +1129,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Spårlöpa</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1178,85 +1155,86 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Bryn mellan granskog och hygge</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Pia Hagfors</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Pia Hagfors, Sören Larsson</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Skogsprojektet</t>
-        </is>
-      </c>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100012650</v>
+        <v>82077444</v>
       </c>
       <c r="B6" t="n">
-        <v>98520</v>
+        <v>56540</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Björksnarsängen, Ramnäs, Vstm, Vstm</t>
+          <t>Sylbergen, Ramnäs sn, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>559079.2518648836</v>
+        <v>559028.7024672464</v>
       </c>
       <c r="R6" t="n">
-        <v>6632917.41681556</v>
+        <v>6632389.577532524</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1280,22 +1258,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1304,39 +1282,28 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>I kanten in till granskog</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Pia Hagfors</t>
+          <t>Sören Larsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Pia Hagfors, Sören Larsson</t>
+          <t>Sören Larsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100012020</v>
+        <v>84233383</v>
       </c>
       <c r="B7" t="n">
-        <v>81972</v>
+        <v>95511</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1345,52 +1312,53 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1445</v>
+        <v>221944</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Björksnarsängen, Ramnäs, Vstm, Vstm</t>
+          <t>Björksnarsravinen V, Vstm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>559066.4941276131</v>
+        <v>559107.1042096588</v>
       </c>
       <c r="R7" t="n">
-        <v>6632801.051186339</v>
+        <v>6632591.488513878</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1414,7 +1382,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1424,7 +1392,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1442,35 +1410,30 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Blandsumpskog, dikad</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Pia Hagfors</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Pia Hagfors, Sören Larsson</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100237712</v>
+        <v>84233182</v>
       </c>
       <c r="B8" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1479,52 +1442,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Björksnaret, Ramnäs sn, Vstm</t>
+          <t>Björksnarsravinen V, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>559064.2878785466</v>
+        <v>559179.7948111967</v>
       </c>
       <c r="R8" t="n">
-        <v>6632813.08513793</v>
+        <v>6632613.767589822</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1548,7 +1508,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1558,7 +1518,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1576,25 +1536,30 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Sören Larsson</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Sören Larsson, Pia Hagfors</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100237739</v>
+        <v>84233565</v>
       </c>
       <c r="B9" t="n">
-        <v>103265</v>
+        <v>81972</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1603,57 +1568,52 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>1445</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Björksnaret, Ramnäs sn, Vstm</t>
+          <t>Björksnarsängen V, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>559026.5183235134</v>
+        <v>559058.2925808135</v>
       </c>
       <c r="R9" t="n">
-        <v>6632875.846604396</v>
+        <v>6632809.972575822</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1677,7 +1637,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1687,17 +1647,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Blomstänglar från fjolåret</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1710,25 +1665,30 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Sören Larsson</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Sören Larsson, Pia Hagfors</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104866544</v>
+        <v>84233370</v>
       </c>
       <c r="B10" t="n">
-        <v>57193</v>
+        <v>95511</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1737,53 +1697,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>206004</v>
+        <v>221944</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Norra Björksnarsvägen, Ramnäs, Vstm , Vstm</t>
+          <t>Björksnarsravinen V, Vstm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>559092.3137831029</v>
+        <v>559119.1434295904</v>
       </c>
       <c r="R10" t="n">
-        <v>6632824.594045005</v>
+        <v>6632594.697489112</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1807,22 +1767,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1831,28 +1791,34 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Blandsumpskog, dikad</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Pia Hagfors</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Pia Hagfors, Sören Larsson</t>
+          <t>Tom Sävström</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67830864</v>
+        <v>95098767</v>
       </c>
       <c r="B11" t="n">
-        <v>95519</v>
+        <v>96254</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1865,27 +1831,28 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>223597</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stora Björksnarssjön NO, Vstm</t>
@@ -1922,7 +1889,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1932,7 +1899,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1946,12 +1913,13 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Granskog, översilning, rännil</t>
+          <t>Blandskog, rännil, översilning</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1969,10 +1937,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67830887</v>
+        <v>95857553</v>
       </c>
       <c r="B12" t="n">
-        <v>90674</v>
+        <v>95519</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1985,39 +1953,41 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>221945</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Stora Björksnarssjön NO, Vstm</t>
+          <t>Björksnarsravinen V, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>559210.6822335802</v>
+        <v>559113.1638181001</v>
       </c>
       <c r="R12" t="n">
-        <v>6632445.783431645</v>
+        <v>6632590.579106272</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2041,7 +2011,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2051,7 +2021,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2069,85 +2039,72 @@
       <c r="AG12" t="b">
         <v>0</v>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Granskog, översilning</t>
-        </is>
-      </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>82077444</v>
+        <v>95857569</v>
       </c>
       <c r="B13" t="n">
-        <v>56540</v>
+        <v>101680</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>222412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Sylbergen, Ramnäs sn, Vstm</t>
+          <t>Björksnarsviken V, Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>559028.7024672464</v>
+        <v>559105.2811244538</v>
       </c>
       <c r="R13" t="n">
-        <v>6632389.577532524</v>
+        <v>6632642.755510757</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2171,22 +2128,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2195,25 +2152,26 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Sören Larsson</t>
+          <t>Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Sören Larsson</t>
+          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>84233383</v>
+        <v>95857544</v>
       </c>
       <c r="B14" t="n">
         <v>95511</v>
@@ -2248,7 +2206,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2265,13 +2223,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>559107.1042096588</v>
+        <v>559113.1638181001</v>
       </c>
       <c r="R14" t="n">
-        <v>6632591.488513878</v>
+        <v>6632590.579106272</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2295,7 +2253,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2305,7 +2263,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2323,30 +2281,25 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Blandsumpskog, dikad</t>
-        </is>
-      </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>84233182</v>
+        <v>97726142</v>
       </c>
       <c r="B15" t="n">
-        <v>98520</v>
+        <v>57193</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2355,49 +2308,53 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>206004</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Björksnarsravinen V, Vstm</t>
+          <t>Sylbergenskogen, Ramnäs, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>559179.7948111967</v>
+        <v>559090.7224843311</v>
       </c>
       <c r="R15" t="n">
-        <v>6632613.767589822</v>
+        <v>6632924.639299963</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2421,22 +2378,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Spårlöpa</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2445,34 +2407,32 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr"/>
+          <t>Pia Hagfors, Sören Larsson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Skogsprojektet</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>84233370</v>
+        <v>100012650</v>
       </c>
       <c r="B16" t="n">
-        <v>95511</v>
+        <v>98520</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2485,49 +2445,49 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221944</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Björksnarsravinen V, Vstm</t>
+          <t>Björksnarsängen, Ramnäs, Vstm, Vstm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>559119.1434295904</v>
+        <v>559079.2518648836</v>
       </c>
       <c r="R16" t="n">
-        <v>6632594.697489112</v>
+        <v>6632917.41681556</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2551,22 +2511,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2579,30 +2539,35 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Blandsumpskog, dikad</t>
+          <t>I kanten in till granskog</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors, Sören Larsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>95098767</v>
+        <v>100012020</v>
       </c>
       <c r="B17" t="n">
-        <v>96254</v>
+        <v>81972</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2611,45 +2576,52 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>223597</v>
+        <v>1445</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>Sarcosoma globosum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Stora Björksnarssjön NO, Vstm</t>
+          <t>Björksnarsängen, Ramnäs, Vstm, Vstm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>559210.6822335802</v>
+        <v>559066.4941276131</v>
       </c>
       <c r="R17" t="n">
-        <v>6632445.783431645</v>
+        <v>6632801.051186339</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2673,7 +2645,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2683,7 +2655,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2701,30 +2673,35 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Blandskog, rännil, översilning</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Tom Sävström</t>
+          <t>Pia Hagfors, Sören Larsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>95857553</v>
+        <v>100237712</v>
       </c>
       <c r="B18" t="n">
-        <v>95519</v>
+        <v>81972</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2733,45 +2710,52 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221945</v>
+        <v>1445</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Björksnarsravinen V, Vstm</t>
+          <t>Björksnaret, Ramnäs sn, Vstm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>559113.1638181001</v>
+        <v>559064.2878785466</v>
       </c>
       <c r="R18" t="n">
-        <v>6632590.579106272</v>
+        <v>6632813.08513793</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2795,7 +2779,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2805,7 +2789,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2826,22 +2810,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi</t>
+          <t>Sören Larsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
+          <t>Sören Larsson, Pia Hagfors</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>95857569</v>
+        <v>100237739</v>
       </c>
       <c r="B19" t="n">
-        <v>101680</v>
+        <v>103265</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2854,41 +2838,53 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222412</v>
+        <v>221144</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björksnarsviken V, Vstm</t>
+          <t>Björksnaret, Ramnäs sn, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>559105.2811244538</v>
+        <v>559026.5183235134</v>
       </c>
       <c r="R19" t="n">
-        <v>6632642.755510757</v>
+        <v>6632875.846604396</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2912,7 +2908,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2922,12 +2918,17 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Blomstänglar från fjolåret</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2943,22 +2944,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi</t>
+          <t>Sören Larsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
+          <t>Sören Larsson, Pia Hagfors</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95857544</v>
+        <v>102293078</v>
       </c>
       <c r="B20" t="n">
-        <v>95511</v>
+        <v>96254</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2971,26 +2972,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221944</v>
+        <v>223597</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2998,22 +2995,26 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björksnarsravinen V, Vstm</t>
+          <t>Målsjövägen, Ramnäs, Vstm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>559113.1638181001</v>
+        <v>559205.7363768491</v>
       </c>
       <c r="R20" t="n">
-        <v>6632590.579106272</v>
+        <v>6632598.087953186</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3037,22 +3038,27 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>I en blöt sänka (gammal skogsväg)</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3068,22 +3074,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi</t>
+          <t>Alf Gustafsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström, Lars Gullberg, Markus Rehnberg, Sören Larsson</t>
+          <t>Alf Gustafsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>102293078</v>
+        <v>104866544</v>
       </c>
       <c r="B21" t="n">
-        <v>96254</v>
+        <v>57193</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3092,53 +3098,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>223597</v>
+        <v>206004</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>Lepus timidus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Målsjövägen, Ramnäs, Vstm</t>
+          <t>Norra Björksnarsvägen, Ramnäs, Vstm , Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>559205.7363768491</v>
+        <v>559092.3137831029</v>
       </c>
       <c r="R21" t="n">
-        <v>6632598.087953186</v>
+        <v>6632824.594045005</v>
       </c>
       <c r="S21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3162,27 +3168,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>I en blöt sänka (gammal skogsväg)</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3191,19 +3192,18 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Alf Gustafsson</t>
+          <t>Pia Hagfors</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Alf Gustafsson</t>
+          <t>Pia Hagfors, Sören Larsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
